--- a/Code/Results/Cases/Case_5_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_227/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026164300461102</v>
+        <v>1.060212565978399</v>
       </c>
       <c r="D2">
-        <v>1.038387338003413</v>
+        <v>1.059029976307234</v>
       </c>
       <c r="E2">
-        <v>1.035440434075951</v>
+        <v>1.065305517444206</v>
       </c>
       <c r="F2">
-        <v>1.039088299103089</v>
+        <v>1.074369071146585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05246171502284</v>
+        <v>1.048266099844685</v>
       </c>
       <c r="J2">
-        <v>1.047589643646589</v>
+        <v>1.065194583162613</v>
       </c>
       <c r="K2">
-        <v>1.049336577683177</v>
+        <v>1.061760593960952</v>
       </c>
       <c r="L2">
-        <v>1.046427157351184</v>
+        <v>1.06801911496176</v>
       </c>
       <c r="M2">
-        <v>1.050028661871531</v>
+        <v>1.077058466466712</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03249996780828</v>
+        <v>1.061496188969643</v>
       </c>
       <c r="D3">
-        <v>1.043272492481979</v>
+        <v>1.060029360536541</v>
       </c>
       <c r="E3">
-        <v>1.041031161918058</v>
+        <v>1.06648871049175</v>
       </c>
       <c r="F3">
-        <v>1.045391424797307</v>
+        <v>1.075724833772661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05473691636668</v>
+        <v>1.048655696046671</v>
       </c>
       <c r="J3">
-        <v>1.05214222271951</v>
+        <v>1.06613017084674</v>
       </c>
       <c r="K3">
-        <v>1.053380086523388</v>
+        <v>1.062573658481804</v>
       </c>
       <c r="L3">
-        <v>1.051164637774781</v>
+        <v>1.069016761748611</v>
       </c>
       <c r="M3">
-        <v>1.055474676395918</v>
+        <v>1.078230018876174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036493225684554</v>
+        <v>1.062326228587303</v>
       </c>
       <c r="D4">
-        <v>1.046353757456659</v>
+        <v>1.060675445267672</v>
       </c>
       <c r="E4">
-        <v>1.044560452783645</v>
+        <v>1.067254098604845</v>
       </c>
       <c r="F4">
-        <v>1.049372106712492</v>
+        <v>1.076602188036038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056160528929569</v>
+        <v>1.04890627515856</v>
       </c>
       <c r="J4">
-        <v>1.055007355976507</v>
+        <v>1.066734492371148</v>
       </c>
       <c r="K4">
-        <v>1.055923158938337</v>
+        <v>1.063098569188278</v>
       </c>
       <c r="L4">
-        <v>1.054149249187394</v>
+        <v>1.069661512171498</v>
       </c>
       <c r="M4">
-        <v>1.058909047577723</v>
+        <v>1.078987631889341</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038147748495734</v>
+        <v>1.062675048634613</v>
       </c>
       <c r="D5">
-        <v>1.047630877809386</v>
+        <v>1.060946921260195</v>
       </c>
       <c r="E5">
-        <v>1.04602401691939</v>
+        <v>1.067575818131304</v>
       </c>
       <c r="F5">
-        <v>1.051023283023101</v>
+        <v>1.076971050995081</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056747829959234</v>
+        <v>1.049011256702167</v>
       </c>
       <c r="J5">
-        <v>1.056193391031856</v>
+        <v>1.066988295935872</v>
       </c>
       <c r="K5">
-        <v>1.056975457554505</v>
+        <v>1.063318956924477</v>
       </c>
       <c r="L5">
-        <v>1.055385489931728</v>
+        <v>1.069932377336074</v>
       </c>
       <c r="M5">
-        <v>1.060332404880325</v>
+        <v>1.079306024841855</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038424162326801</v>
+        <v>1.062733609604775</v>
       </c>
       <c r="D6">
-        <v>1.047844265788389</v>
+        <v>1.060992495229391</v>
       </c>
       <c r="E6">
-        <v>1.046268601598116</v>
+        <v>1.067629833411249</v>
       </c>
       <c r="F6">
-        <v>1.05129924627815</v>
+        <v>1.07703298615326</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056845796905305</v>
+        <v>1.049028862369759</v>
       </c>
       <c r="J6">
-        <v>1.056391472263714</v>
+        <v>1.067030895883026</v>
       </c>
       <c r="K6">
-        <v>1.05715117830398</v>
+        <v>1.063355944347983</v>
       </c>
       <c r="L6">
-        <v>1.055592000042658</v>
+        <v>1.069977845831115</v>
       </c>
       <c r="M6">
-        <v>1.06057022101343</v>
+        <v>1.079359478184987</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036515427211165</v>
+        <v>1.062330890039279</v>
       </c>
       <c r="D7">
-        <v>1.0463708930028</v>
+        <v>1.060679073283403</v>
       </c>
       <c r="E7">
-        <v>1.044580086919546</v>
+        <v>1.067258397629084</v>
       </c>
       <c r="F7">
-        <v>1.049394256011561</v>
+        <v>1.076607116706149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056168419856539</v>
+        <v>1.04890767934799</v>
       </c>
       <c r="J7">
-        <v>1.055023275315525</v>
+        <v>1.066737884699155</v>
       </c>
       <c r="K7">
-        <v>1.055937284896549</v>
+        <v>1.06310151513666</v>
       </c>
       <c r="L7">
-        <v>1.054165839446039</v>
+        <v>1.069665132220823</v>
       </c>
       <c r="M7">
-        <v>1.058928145652213</v>
+        <v>1.078991886691067</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028328247443266</v>
+        <v>1.060646488206925</v>
       </c>
       <c r="D8">
-        <v>1.040055343820017</v>
+        <v>1.059367844774465</v>
       </c>
       <c r="E8">
-        <v>1.037348741776491</v>
+        <v>1.06570542936734</v>
       </c>
       <c r="F8">
-        <v>1.041239435928677</v>
+        <v>1.074827241541855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053240971648108</v>
+        <v>1.048398080105304</v>
       </c>
       <c r="J8">
-        <v>1.04914544744874</v>
+        <v>1.065510991421919</v>
       </c>
       <c r="K8">
-        <v>1.050718756396318</v>
+        <v>1.062035621669735</v>
       </c>
       <c r="L8">
-        <v>1.048045494008746</v>
+        <v>1.068356439991606</v>
       </c>
       <c r="M8">
-        <v>1.051888330751801</v>
+        <v>1.077454494788274</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01302747723191</v>
+        <v>1.05767400184968</v>
       </c>
       <c r="D9">
-        <v>1.028274208486491</v>
+        <v>1.0570527451848</v>
       </c>
       <c r="E9">
-        <v>1.023881937385179</v>
+        <v>1.062967136605161</v>
       </c>
       <c r="F9">
-        <v>1.026065119426343</v>
+        <v>1.071691399359272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047688371597022</v>
+        <v>1.047488450379145</v>
       </c>
       <c r="J9">
-        <v>1.038128442682863</v>
+        <v>1.063340789633619</v>
       </c>
       <c r="K9">
-        <v>1.040924627344636</v>
+        <v>1.060148141737401</v>
       </c>
       <c r="L9">
-        <v>1.036599075477159</v>
+        <v>1.066044182788121</v>
       </c>
       <c r="M9">
-        <v>1.038749003667383</v>
+        <v>1.074741780369689</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002147813966513</v>
+        <v>1.055689217650335</v>
       </c>
       <c r="D10">
-        <v>1.019917806315925</v>
+        <v>1.055506177875342</v>
       </c>
       <c r="E10">
-        <v>1.014343210031485</v>
+        <v>1.061140275568743</v>
       </c>
       <c r="F10">
-        <v>1.015323494036763</v>
+        <v>1.069601011056387</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043688042590209</v>
+        <v>1.04687413670083</v>
       </c>
       <c r="J10">
-        <v>1.030276474623711</v>
+        <v>1.061888303823558</v>
       </c>
       <c r="K10">
-        <v>1.033936515873039</v>
+        <v>1.05888350085767</v>
       </c>
       <c r="L10">
-        <v>1.028458234106668</v>
+        <v>1.064498391807703</v>
       </c>
       <c r="M10">
-        <v>1.029421482169943</v>
+        <v>1.072930701826593</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9972524248204062</v>
+        <v>1.054828997794873</v>
       </c>
       <c r="D11">
-        <v>1.01616411041701</v>
+        <v>1.054835720577301</v>
       </c>
       <c r="E11">
-        <v>1.010061072149711</v>
+        <v>1.060348875237239</v>
       </c>
       <c r="F11">
-        <v>1.010502467546633</v>
+        <v>1.068695850170939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041876498446341</v>
+        <v>1.046606245906017</v>
       </c>
       <c r="J11">
-        <v>1.026739954533003</v>
+        <v>1.061257983178738</v>
       </c>
       <c r="K11">
-        <v>1.030787500264602</v>
+        <v>1.058334373306913</v>
       </c>
       <c r="L11">
-        <v>1.024795713276366</v>
+        <v>1.06382799995354</v>
       </c>
       <c r="M11">
-        <v>1.025229003831107</v>
+        <v>1.072145831480218</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9954041143354455</v>
+        <v>1.054509350421025</v>
       </c>
       <c r="D12">
-        <v>1.014747945184862</v>
+        <v>1.054586562907232</v>
       </c>
       <c r="E12">
-        <v>1.00844589323303</v>
+        <v>1.060054857256316</v>
       </c>
       <c r="F12">
-        <v>1.008684152221103</v>
+        <v>1.068359628171484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041190867076817</v>
+        <v>1.046506454288681</v>
       </c>
       <c r="J12">
-        <v>1.025404261994943</v>
+        <v>1.061023643320153</v>
       </c>
       <c r="K12">
-        <v>1.029597949080616</v>
+        <v>1.058130170833649</v>
       </c>
       <c r="L12">
-        <v>1.02341305257276</v>
+        <v>1.063578825462841</v>
       </c>
       <c r="M12">
-        <v>1.023646847551861</v>
+        <v>1.071854193119241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9958019768661329</v>
+        <v>1.054577921516276</v>
       </c>
       <c r="D13">
-        <v>1.015052733941731</v>
+        <v>1.054640013539114</v>
       </c>
       <c r="E13">
-        <v>1.008793498806027</v>
+        <v>1.060117927722948</v>
       </c>
       <c r="F13">
-        <v>1.009075470114644</v>
+        <v>1.068431749213377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041338528073661</v>
+        <v>1.046527872848665</v>
       </c>
       <c r="J13">
-        <v>1.025691798127467</v>
+        <v>1.061073919593189</v>
       </c>
       <c r="K13">
-        <v>1.029854034435728</v>
+        <v>1.058173983494061</v>
       </c>
       <c r="L13">
-        <v>1.023710671523239</v>
+        <v>1.063632281571343</v>
       </c>
       <c r="M13">
-        <v>1.023987382573969</v>
+        <v>1.071916755230631</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9971002675675738</v>
+        <v>1.054802578183818</v>
       </c>
       <c r="D14">
-        <v>1.016047505523658</v>
+        <v>1.054815127587263</v>
       </c>
       <c r="E14">
-        <v>1.009928073891054</v>
+        <v>1.060324572792232</v>
       </c>
       <c r="F14">
-        <v>1.010352740152138</v>
+        <v>1.068668058077305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041820088938749</v>
+        <v>1.046598002921999</v>
       </c>
       <c r="J14">
-        <v>1.026630005597383</v>
+        <v>1.061238616886746</v>
       </c>
       <c r="K14">
-        <v>1.030689585300571</v>
+        <v>1.058317498613476</v>
       </c>
       <c r="L14">
-        <v>1.024681885493459</v>
+        <v>1.063807406414777</v>
       </c>
       <c r="M14">
-        <v>1.025098741037579</v>
+        <v>1.072121726673243</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9978961482836468</v>
+        <v>1.054940980098828</v>
       </c>
       <c r="D15">
-        <v>1.016657469438722</v>
+        <v>1.054923005165434</v>
       </c>
       <c r="E15">
-        <v>1.010623806094118</v>
+        <v>1.060451886042766</v>
       </c>
       <c r="F15">
-        <v>1.011135989679579</v>
+        <v>1.068813655004492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042115079948147</v>
+        <v>1.046641174565337</v>
       </c>
       <c r="J15">
-        <v>1.027205092209027</v>
+        <v>1.061340064324349</v>
       </c>
       <c r="K15">
-        <v>1.031201719823956</v>
+        <v>1.058405892199251</v>
       </c>
       <c r="L15">
-        <v>1.025277285632409</v>
+        <v>1.063915285180547</v>
       </c>
       <c r="M15">
-        <v>1.025780131115413</v>
+        <v>1.072248002656693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00246863365413</v>
+        <v>1.055746290518433</v>
       </c>
       <c r="D16">
-        <v>1.020163947464903</v>
+        <v>1.05555065721801</v>
       </c>
       <c r="E16">
-        <v>1.014624054058055</v>
+        <v>1.06119279041911</v>
       </c>
       <c r="F16">
-        <v>1.015639700910392</v>
+        <v>1.069661083107726</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043806528573758</v>
+        <v>1.046891875825855</v>
       </c>
       <c r="J16">
-        <v>1.030508175569396</v>
+        <v>1.061930106727078</v>
       </c>
       <c r="K16">
-        <v>1.034142798062554</v>
+        <v>1.058919912225458</v>
       </c>
       <c r="L16">
-        <v>1.028698275647157</v>
+        <v>1.064542861064379</v>
       </c>
       <c r="M16">
-        <v>1.029696337064729</v>
+        <v>1.072982776878889</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005285951455262</v>
+        <v>1.056251224787447</v>
       </c>
       <c r="D17">
-        <v>1.022326198238401</v>
+        <v>1.055944155415449</v>
       </c>
       <c r="E17">
-        <v>1.017091451531243</v>
+        <v>1.061657442376085</v>
       </c>
       <c r="F17">
-        <v>1.018417906097228</v>
+        <v>1.070192647433422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044845727387573</v>
+        <v>1.047048627498005</v>
       </c>
       <c r="J17">
-        <v>1.032542502976993</v>
+        <v>1.062299852131059</v>
       </c>
       <c r="K17">
-        <v>1.03595377390552</v>
+        <v>1.059241932290571</v>
       </c>
       <c r="L17">
-        <v>1.030806298268011</v>
+        <v>1.064936238682391</v>
       </c>
       <c r="M17">
-        <v>1.032110529483896</v>
+        <v>1.073443502006855</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006911614361313</v>
+        <v>1.056545667946985</v>
       </c>
       <c r="D18">
-        <v>1.023574458780908</v>
+        <v>1.056173600820469</v>
       </c>
       <c r="E18">
-        <v>1.018516126431465</v>
+        <v>1.061928431714367</v>
       </c>
       <c r="F18">
-        <v>1.020022149728731</v>
+        <v>1.070502699292044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045444275500904</v>
+        <v>1.047139875928965</v>
       </c>
       <c r="J18">
-        <v>1.033716028341067</v>
+        <v>1.062515384947565</v>
       </c>
       <c r="K18">
-        <v>1.036998306234812</v>
+        <v>1.059429613704124</v>
       </c>
       <c r="L18">
-        <v>1.032022722387308</v>
+        <v>1.065165587666518</v>
       </c>
       <c r="M18">
-        <v>1.033503998553822</v>
+        <v>1.073712171582964</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007462997002097</v>
+        <v>1.056646052605707</v>
       </c>
       <c r="D19">
-        <v>1.023997932231197</v>
+        <v>1.05625182304709</v>
       </c>
       <c r="E19">
-        <v>1.018999493036644</v>
+        <v>1.062020826348938</v>
       </c>
       <c r="F19">
-        <v>1.020566460330091</v>
+        <v>1.070608418966553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045647099488716</v>
+        <v>1.047170958424933</v>
       </c>
       <c r="J19">
-        <v>1.034113998952733</v>
+        <v>1.062588853517664</v>
       </c>
       <c r="K19">
-        <v>1.037352506091167</v>
+        <v>1.059493583274223</v>
       </c>
       <c r="L19">
-        <v>1.032435306522235</v>
+        <v>1.065243772604864</v>
       </c>
       <c r="M19">
-        <v>1.033976695878797</v>
+        <v>1.07380377027462</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004985518973492</v>
+        <v>1.056197058057252</v>
       </c>
       <c r="D20">
-        <v>1.022095558683391</v>
+        <v>1.055901944603072</v>
       </c>
       <c r="E20">
-        <v>1.016828236997984</v>
+        <v>1.061607593187575</v>
       </c>
       <c r="F20">
-        <v>1.018121524555874</v>
+        <v>1.070135615703383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044735022826566</v>
+        <v>1.047031828379148</v>
       </c>
       <c r="J20">
-        <v>1.032325600817581</v>
+        <v>1.06226019576928</v>
       </c>
       <c r="K20">
-        <v>1.035760701160243</v>
+        <v>1.05920739785286</v>
       </c>
       <c r="L20">
-        <v>1.030581498443397</v>
+        <v>1.064894043508918</v>
       </c>
       <c r="M20">
-        <v>1.031853041238998</v>
+        <v>1.073394077163326</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9967187991293326</v>
+        <v>1.054736425833377</v>
       </c>
       <c r="D21">
-        <v>1.015755187183769</v>
+        <v>1.054763564194969</v>
       </c>
       <c r="E21">
-        <v>1.009594664320955</v>
+        <v>1.060263722557756</v>
       </c>
       <c r="F21">
-        <v>1.009977394681185</v>
+        <v>1.068598471172181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04167864004555</v>
+        <v>1.046577359242218</v>
       </c>
       <c r="J21">
-        <v>1.026354349474521</v>
+        <v>1.061190123476783</v>
       </c>
       <c r="K21">
-        <v>1.030444096539635</v>
+        <v>1.058275243411534</v>
       </c>
       <c r="L21">
-        <v>1.024396514597189</v>
+        <v>1.063755840982589</v>
       </c>
       <c r="M21">
-        <v>1.024772176040008</v>
+        <v>1.072061370549332</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9913466396993406</v>
+        <v>1.05381735235664</v>
       </c>
       <c r="D22">
-        <v>1.011641290693227</v>
+        <v>1.054047123963297</v>
       </c>
       <c r="E22">
-        <v>1.004903255777914</v>
+        <v>1.059418448459406</v>
       </c>
       <c r="F22">
-        <v>1.004696152549025</v>
+        <v>1.067631976998144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039682771822929</v>
+        <v>1.046289966629256</v>
       </c>
       <c r="J22">
-        <v>1.022471392643209</v>
+        <v>1.060516106145081</v>
       </c>
       <c r="K22">
-        <v>1.02698560587858</v>
+        <v>1.057687817230077</v>
       </c>
       <c r="L22">
-        <v>1.020378200020827</v>
+        <v>1.063039274403962</v>
       </c>
       <c r="M22">
-        <v>1.020175148282801</v>
+        <v>1.071222849984827</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9942118803686153</v>
+        <v>1.054304639788189</v>
       </c>
       <c r="D23">
-        <v>1.01383478603046</v>
+        <v>1.054426989152226</v>
       </c>
       <c r="E23">
-        <v>1.007404501128131</v>
+        <v>1.059866576455679</v>
       </c>
       <c r="F23">
-        <v>1.00751181754028</v>
+        <v>1.068144337932157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040748149012152</v>
+        <v>1.046442475697203</v>
       </c>
       <c r="J23">
-        <v>1.024542574281614</v>
+        <v>1.060873532059886</v>
       </c>
       <c r="K23">
-        <v>1.028830483589252</v>
+        <v>1.057999351075967</v>
       </c>
       <c r="L23">
-        <v>1.022521239938953</v>
+        <v>1.063419229302021</v>
       </c>
       <c r="M23">
-        <v>1.022626519691205</v>
+        <v>1.071667423074169</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005121325799109</v>
+        <v>1.056221533907146</v>
       </c>
       <c r="D24">
-        <v>1.02219981465638</v>
+        <v>1.055921018085319</v>
       </c>
       <c r="E24">
-        <v>1.016947217042626</v>
+        <v>1.061630117996019</v>
       </c>
       <c r="F24">
-        <v>1.018255496640263</v>
+        <v>1.070161385889108</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044785068874941</v>
+        <v>1.047039419740694</v>
       </c>
       <c r="J24">
-        <v>1.032423649821741</v>
+        <v>1.062278115184366</v>
       </c>
       <c r="K24">
-        <v>1.035847978723119</v>
+        <v>1.059223002934276</v>
       </c>
       <c r="L24">
-        <v>1.030683116327527</v>
+        <v>1.064913110005174</v>
       </c>
       <c r="M24">
-        <v>1.031969434351706</v>
+        <v>1.07341641031907</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017095553138532</v>
+        <v>1.058442997324306</v>
       </c>
       <c r="D25">
-        <v>1.031403419208335</v>
+        <v>1.057651804118408</v>
       </c>
       <c r="E25">
-        <v>1.027456446259079</v>
+        <v>1.063675275024911</v>
       </c>
       <c r="F25">
-        <v>1.030091598650813</v>
+        <v>1.072502045977657</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04917382266661</v>
+        <v>1.047724998360826</v>
       </c>
       <c r="J25">
-        <v>1.041060969806209</v>
+        <v>1.063902831083201</v>
       </c>
       <c r="K25">
-        <v>1.04353304018337</v>
+        <v>1.060637206640577</v>
       </c>
       <c r="L25">
-        <v>1.039642979837287</v>
+        <v>1.066642702244385</v>
       </c>
       <c r="M25">
-        <v>1.042240073870431</v>
+        <v>1.075443529022865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_227/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.060212565978399</v>
+        <v>1.026164300461102</v>
       </c>
       <c r="D2">
-        <v>1.059029976307234</v>
+        <v>1.038387338003413</v>
       </c>
       <c r="E2">
-        <v>1.065305517444206</v>
+        <v>1.035440434075951</v>
       </c>
       <c r="F2">
-        <v>1.074369071146585</v>
+        <v>1.039088299103089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048266099844685</v>
+        <v>1.05246171502284</v>
       </c>
       <c r="J2">
-        <v>1.065194583162613</v>
+        <v>1.047589643646589</v>
       </c>
       <c r="K2">
-        <v>1.061760593960952</v>
+        <v>1.049336577683177</v>
       </c>
       <c r="L2">
-        <v>1.06801911496176</v>
+        <v>1.046427157351184</v>
       </c>
       <c r="M2">
-        <v>1.077058466466712</v>
+        <v>1.050028661871531</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061496188969643</v>
+        <v>1.032499967808281</v>
       </c>
       <c r="D3">
-        <v>1.060029360536541</v>
+        <v>1.04327249248198</v>
       </c>
       <c r="E3">
-        <v>1.06648871049175</v>
+        <v>1.041031161918059</v>
       </c>
       <c r="F3">
-        <v>1.075724833772661</v>
+        <v>1.045391424797308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048655696046671</v>
+        <v>1.05473691636668</v>
       </c>
       <c r="J3">
-        <v>1.06613017084674</v>
+        <v>1.052142222719511</v>
       </c>
       <c r="K3">
-        <v>1.062573658481804</v>
+        <v>1.053380086523388</v>
       </c>
       <c r="L3">
-        <v>1.069016761748611</v>
+        <v>1.051164637774781</v>
       </c>
       <c r="M3">
-        <v>1.078230018876174</v>
+        <v>1.055474676395918</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062326228587303</v>
+        <v>1.036493225684555</v>
       </c>
       <c r="D4">
-        <v>1.060675445267672</v>
+        <v>1.046353757456659</v>
       </c>
       <c r="E4">
-        <v>1.067254098604845</v>
+        <v>1.044560452783645</v>
       </c>
       <c r="F4">
-        <v>1.076602188036038</v>
+        <v>1.049372106712493</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04890627515856</v>
+        <v>1.056160528929569</v>
       </c>
       <c r="J4">
-        <v>1.066734492371148</v>
+        <v>1.055007355976507</v>
       </c>
       <c r="K4">
-        <v>1.063098569188278</v>
+        <v>1.055923158938337</v>
       </c>
       <c r="L4">
-        <v>1.069661512171498</v>
+        <v>1.054149249187394</v>
       </c>
       <c r="M4">
-        <v>1.078987631889341</v>
+        <v>1.058909047577724</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062675048634613</v>
+        <v>1.038147748495733</v>
       </c>
       <c r="D5">
-        <v>1.060946921260195</v>
+        <v>1.047630877809385</v>
       </c>
       <c r="E5">
-        <v>1.067575818131304</v>
+        <v>1.04602401691939</v>
       </c>
       <c r="F5">
-        <v>1.076971050995081</v>
+        <v>1.0510232830231</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049011256702167</v>
+        <v>1.056747829959233</v>
       </c>
       <c r="J5">
-        <v>1.066988295935872</v>
+        <v>1.056193391031855</v>
       </c>
       <c r="K5">
-        <v>1.063318956924477</v>
+        <v>1.056975457554504</v>
       </c>
       <c r="L5">
-        <v>1.069932377336074</v>
+        <v>1.055385489931727</v>
       </c>
       <c r="M5">
-        <v>1.079306024841855</v>
+        <v>1.060332404880324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062733609604775</v>
+        <v>1.038424162326801</v>
       </c>
       <c r="D6">
-        <v>1.060992495229391</v>
+        <v>1.047844265788389</v>
       </c>
       <c r="E6">
-        <v>1.067629833411249</v>
+        <v>1.046268601598116</v>
       </c>
       <c r="F6">
-        <v>1.07703298615326</v>
+        <v>1.05129924627815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049028862369759</v>
+        <v>1.056845796905305</v>
       </c>
       <c r="J6">
-        <v>1.067030895883026</v>
+        <v>1.056391472263714</v>
       </c>
       <c r="K6">
-        <v>1.063355944347983</v>
+        <v>1.05715117830398</v>
       </c>
       <c r="L6">
-        <v>1.069977845831115</v>
+        <v>1.055592000042658</v>
       </c>
       <c r="M6">
-        <v>1.079359478184987</v>
+        <v>1.06057022101343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062330890039279</v>
+        <v>1.036515427211165</v>
       </c>
       <c r="D7">
-        <v>1.060679073283403</v>
+        <v>1.0463708930028</v>
       </c>
       <c r="E7">
-        <v>1.067258397629084</v>
+        <v>1.044580086919547</v>
       </c>
       <c r="F7">
-        <v>1.076607116706149</v>
+        <v>1.049394256011562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04890767934799</v>
+        <v>1.05616841985654</v>
       </c>
       <c r="J7">
-        <v>1.066737884699155</v>
+        <v>1.055023275315526</v>
       </c>
       <c r="K7">
-        <v>1.06310151513666</v>
+        <v>1.05593728489655</v>
       </c>
       <c r="L7">
-        <v>1.069665132220823</v>
+        <v>1.054165839446039</v>
       </c>
       <c r="M7">
-        <v>1.078991886691067</v>
+        <v>1.058928145652214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060646488206925</v>
+        <v>1.028328247443267</v>
       </c>
       <c r="D8">
-        <v>1.059367844774465</v>
+        <v>1.040055343820018</v>
       </c>
       <c r="E8">
-        <v>1.06570542936734</v>
+        <v>1.037348741776491</v>
       </c>
       <c r="F8">
-        <v>1.074827241541855</v>
+        <v>1.041239435928677</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048398080105304</v>
+        <v>1.053240971648109</v>
       </c>
       <c r="J8">
-        <v>1.065510991421919</v>
+        <v>1.04914544744874</v>
       </c>
       <c r="K8">
-        <v>1.062035621669735</v>
+        <v>1.050718756396318</v>
       </c>
       <c r="L8">
-        <v>1.068356439991606</v>
+        <v>1.048045494008746</v>
       </c>
       <c r="M8">
-        <v>1.077454494788274</v>
+        <v>1.051888330751801</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05767400184968</v>
+        <v>1.013027477231909</v>
       </c>
       <c r="D9">
-        <v>1.0570527451848</v>
+        <v>1.02827420848649</v>
       </c>
       <c r="E9">
-        <v>1.062967136605161</v>
+        <v>1.023881937385178</v>
       </c>
       <c r="F9">
-        <v>1.071691399359272</v>
+        <v>1.026065119426342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047488450379145</v>
+        <v>1.047688371597022</v>
       </c>
       <c r="J9">
-        <v>1.063340789633619</v>
+        <v>1.038128442682862</v>
       </c>
       <c r="K9">
-        <v>1.060148141737401</v>
+        <v>1.040924627344635</v>
       </c>
       <c r="L9">
-        <v>1.066044182788121</v>
+        <v>1.036599075477158</v>
       </c>
       <c r="M9">
-        <v>1.074741780369689</v>
+        <v>1.038749003667382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055689217650335</v>
+        <v>1.002147813966514</v>
       </c>
       <c r="D10">
-        <v>1.055506177875342</v>
+        <v>1.019917806315926</v>
       </c>
       <c r="E10">
-        <v>1.061140275568743</v>
+        <v>1.014343210031486</v>
       </c>
       <c r="F10">
-        <v>1.069601011056387</v>
+        <v>1.015323494036764</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04687413670083</v>
+        <v>1.043688042590209</v>
       </c>
       <c r="J10">
-        <v>1.061888303823558</v>
+        <v>1.030276474623712</v>
       </c>
       <c r="K10">
-        <v>1.05888350085767</v>
+        <v>1.03393651587304</v>
       </c>
       <c r="L10">
-        <v>1.064498391807703</v>
+        <v>1.028458234106669</v>
       </c>
       <c r="M10">
-        <v>1.072930701826593</v>
+        <v>1.029421482169944</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054828997794873</v>
+        <v>0.9972524248204052</v>
       </c>
       <c r="D11">
-        <v>1.054835720577301</v>
+        <v>1.016164110417009</v>
       </c>
       <c r="E11">
-        <v>1.060348875237239</v>
+        <v>1.01006107214971</v>
       </c>
       <c r="F11">
-        <v>1.068695850170939</v>
+        <v>1.010502467546631</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046606245906017</v>
+        <v>1.04187649844634</v>
       </c>
       <c r="J11">
-        <v>1.061257983178738</v>
+        <v>1.026739954533002</v>
       </c>
       <c r="K11">
-        <v>1.058334373306913</v>
+        <v>1.030787500264601</v>
       </c>
       <c r="L11">
-        <v>1.06382799995354</v>
+        <v>1.024795713276365</v>
       </c>
       <c r="M11">
-        <v>1.072145831480218</v>
+        <v>1.025229003831106</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054509350421025</v>
+        <v>0.9954041143354441</v>
       </c>
       <c r="D12">
-        <v>1.054586562907232</v>
+        <v>1.014747945184861</v>
       </c>
       <c r="E12">
-        <v>1.060054857256316</v>
+        <v>1.008445893233028</v>
       </c>
       <c r="F12">
-        <v>1.068359628171484</v>
+        <v>1.008684152221101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046506454288681</v>
+        <v>1.041190867076816</v>
       </c>
       <c r="J12">
-        <v>1.061023643320153</v>
+        <v>1.025404261994941</v>
       </c>
       <c r="K12">
-        <v>1.058130170833649</v>
+        <v>1.029597949080615</v>
       </c>
       <c r="L12">
-        <v>1.063578825462841</v>
+        <v>1.023413052572759</v>
       </c>
       <c r="M12">
-        <v>1.071854193119241</v>
+        <v>1.023646847551859</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054577921516276</v>
+        <v>0.9958019768661334</v>
       </c>
       <c r="D13">
-        <v>1.054640013539114</v>
+        <v>1.015052733941731</v>
       </c>
       <c r="E13">
-        <v>1.060117927722948</v>
+        <v>1.008793498806027</v>
       </c>
       <c r="F13">
-        <v>1.068431749213377</v>
+        <v>1.009075470114644</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046527872848665</v>
+        <v>1.041338528073662</v>
       </c>
       <c r="J13">
-        <v>1.061073919593189</v>
+        <v>1.025691798127467</v>
       </c>
       <c r="K13">
-        <v>1.058173983494061</v>
+        <v>1.029854034435729</v>
       </c>
       <c r="L13">
-        <v>1.063632281571343</v>
+        <v>1.023710671523239</v>
       </c>
       <c r="M13">
-        <v>1.071916755230631</v>
+        <v>1.023987382573969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054802578183818</v>
+        <v>0.9971002675675747</v>
       </c>
       <c r="D14">
-        <v>1.054815127587263</v>
+        <v>1.016047505523658</v>
       </c>
       <c r="E14">
-        <v>1.060324572792232</v>
+        <v>1.009928073891055</v>
       </c>
       <c r="F14">
-        <v>1.068668058077305</v>
+        <v>1.010352740152139</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046598002921999</v>
+        <v>1.04182008893875</v>
       </c>
       <c r="J14">
-        <v>1.061238616886746</v>
+        <v>1.026630005597384</v>
       </c>
       <c r="K14">
-        <v>1.058317498613476</v>
+        <v>1.030689585300572</v>
       </c>
       <c r="L14">
-        <v>1.063807406414777</v>
+        <v>1.02468188549346</v>
       </c>
       <c r="M14">
-        <v>1.072121726673243</v>
+        <v>1.02509874103758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054940980098828</v>
+        <v>0.9978961482836469</v>
       </c>
       <c r="D15">
-        <v>1.054923005165434</v>
+        <v>1.016657469438723</v>
       </c>
       <c r="E15">
-        <v>1.060451886042766</v>
+        <v>1.010623806094118</v>
       </c>
       <c r="F15">
-        <v>1.068813655004492</v>
+        <v>1.011135989679579</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046641174565337</v>
+        <v>1.042115079948147</v>
       </c>
       <c r="J15">
-        <v>1.061340064324349</v>
+        <v>1.027205092209027</v>
       </c>
       <c r="K15">
-        <v>1.058405892199251</v>
+        <v>1.031201719823956</v>
       </c>
       <c r="L15">
-        <v>1.063915285180547</v>
+        <v>1.025277285632409</v>
       </c>
       <c r="M15">
-        <v>1.072248002656693</v>
+        <v>1.025780131115413</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055746290518433</v>
+        <v>1.002468633654131</v>
       </c>
       <c r="D16">
-        <v>1.05555065721801</v>
+        <v>1.020163947464904</v>
       </c>
       <c r="E16">
-        <v>1.06119279041911</v>
+        <v>1.014624054058056</v>
       </c>
       <c r="F16">
-        <v>1.069661083107726</v>
+        <v>1.015639700910393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046891875825855</v>
+        <v>1.043806528573758</v>
       </c>
       <c r="J16">
-        <v>1.061930106727078</v>
+        <v>1.030508175569397</v>
       </c>
       <c r="K16">
-        <v>1.058919912225458</v>
+        <v>1.034142798062555</v>
       </c>
       <c r="L16">
-        <v>1.064542861064379</v>
+        <v>1.028698275647158</v>
       </c>
       <c r="M16">
-        <v>1.072982776878889</v>
+        <v>1.029696337064731</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056251224787447</v>
+        <v>1.005285951455262</v>
       </c>
       <c r="D17">
-        <v>1.055944155415449</v>
+        <v>1.0223261982384</v>
       </c>
       <c r="E17">
-        <v>1.061657442376085</v>
+        <v>1.017091451531243</v>
       </c>
       <c r="F17">
-        <v>1.070192647433422</v>
+        <v>1.018417906097228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047048627498005</v>
+        <v>1.044845727387573</v>
       </c>
       <c r="J17">
-        <v>1.062299852131059</v>
+        <v>1.032542502976993</v>
       </c>
       <c r="K17">
-        <v>1.059241932290571</v>
+        <v>1.035953773905519</v>
       </c>
       <c r="L17">
-        <v>1.064936238682391</v>
+        <v>1.030806298268011</v>
       </c>
       <c r="M17">
-        <v>1.073443502006855</v>
+        <v>1.032110529483896</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056545667946985</v>
+        <v>1.006911614361314</v>
       </c>
       <c r="D18">
-        <v>1.056173600820469</v>
+        <v>1.023574458780908</v>
       </c>
       <c r="E18">
-        <v>1.061928431714367</v>
+        <v>1.018516126431465</v>
       </c>
       <c r="F18">
-        <v>1.070502699292044</v>
+        <v>1.020022149728731</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047139875928965</v>
+        <v>1.045444275500905</v>
       </c>
       <c r="J18">
-        <v>1.062515384947565</v>
+        <v>1.033716028341067</v>
       </c>
       <c r="K18">
-        <v>1.059429613704124</v>
+        <v>1.036998306234813</v>
       </c>
       <c r="L18">
-        <v>1.065165587666518</v>
+        <v>1.032022722387308</v>
       </c>
       <c r="M18">
-        <v>1.073712171582964</v>
+        <v>1.033503998553822</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056646052605707</v>
+        <v>1.007462997002098</v>
       </c>
       <c r="D19">
-        <v>1.05625182304709</v>
+        <v>1.023997932231198</v>
       </c>
       <c r="E19">
-        <v>1.062020826348938</v>
+        <v>1.018999493036645</v>
       </c>
       <c r="F19">
-        <v>1.070608418966553</v>
+        <v>1.020566460330092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047170958424933</v>
+        <v>1.045647099488717</v>
       </c>
       <c r="J19">
-        <v>1.062588853517664</v>
+        <v>1.034113998952734</v>
       </c>
       <c r="K19">
-        <v>1.059493583274223</v>
+        <v>1.037352506091168</v>
       </c>
       <c r="L19">
-        <v>1.065243772604864</v>
+        <v>1.032435306522236</v>
       </c>
       <c r="M19">
-        <v>1.07380377027462</v>
+        <v>1.033976695878797</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056197058057252</v>
+        <v>1.00498551897349</v>
       </c>
       <c r="D20">
-        <v>1.055901944603072</v>
+        <v>1.02209555868339</v>
       </c>
       <c r="E20">
-        <v>1.061607593187575</v>
+        <v>1.016828236997983</v>
       </c>
       <c r="F20">
-        <v>1.070135615703383</v>
+        <v>1.018121524555873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047031828379148</v>
+        <v>1.044735022826565</v>
       </c>
       <c r="J20">
-        <v>1.06226019576928</v>
+        <v>1.032325600817579</v>
       </c>
       <c r="K20">
-        <v>1.05920739785286</v>
+        <v>1.035760701160241</v>
       </c>
       <c r="L20">
-        <v>1.064894043508918</v>
+        <v>1.030581498443395</v>
       </c>
       <c r="M20">
-        <v>1.073394077163326</v>
+        <v>1.031853041238996</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054736425833377</v>
+        <v>0.9967187991293316</v>
       </c>
       <c r="D21">
-        <v>1.054763564194969</v>
+        <v>1.015755187183769</v>
       </c>
       <c r="E21">
-        <v>1.060263722557756</v>
+        <v>1.009594664320954</v>
       </c>
       <c r="F21">
-        <v>1.068598471172181</v>
+        <v>1.009977394681184</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046577359242218</v>
+        <v>1.041678640045549</v>
       </c>
       <c r="J21">
-        <v>1.061190123476783</v>
+        <v>1.02635434947452</v>
       </c>
       <c r="K21">
-        <v>1.058275243411534</v>
+        <v>1.030444096539634</v>
       </c>
       <c r="L21">
-        <v>1.063755840982589</v>
+        <v>1.024396514597187</v>
       </c>
       <c r="M21">
-        <v>1.072061370549332</v>
+        <v>1.024772176040006</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05381735235664</v>
+        <v>0.9913466396993383</v>
       </c>
       <c r="D22">
-        <v>1.054047123963297</v>
+        <v>1.011641290693225</v>
       </c>
       <c r="E22">
-        <v>1.059418448459406</v>
+        <v>1.004903255777912</v>
       </c>
       <c r="F22">
-        <v>1.067631976998144</v>
+        <v>1.004696152549023</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046289966629256</v>
+        <v>1.039682771822928</v>
       </c>
       <c r="J22">
-        <v>1.060516106145081</v>
+        <v>1.022471392643206</v>
       </c>
       <c r="K22">
-        <v>1.057687817230077</v>
+        <v>1.026985605878578</v>
       </c>
       <c r="L22">
-        <v>1.063039274403962</v>
+        <v>1.020378200020825</v>
       </c>
       <c r="M22">
-        <v>1.071222849984827</v>
+        <v>1.020175148282798</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054304639788189</v>
+        <v>0.9942118803686142</v>
       </c>
       <c r="D23">
-        <v>1.054426989152226</v>
+        <v>1.013834786030458</v>
       </c>
       <c r="E23">
-        <v>1.059866576455679</v>
+        <v>1.007404501128129</v>
       </c>
       <c r="F23">
-        <v>1.068144337932157</v>
+        <v>1.007511817540278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046442475697203</v>
+        <v>1.040748149012151</v>
       </c>
       <c r="J23">
-        <v>1.060873532059886</v>
+        <v>1.024542574281613</v>
       </c>
       <c r="K23">
-        <v>1.057999351075967</v>
+        <v>1.02883048358925</v>
       </c>
       <c r="L23">
-        <v>1.063419229302021</v>
+        <v>1.022521239938952</v>
       </c>
       <c r="M23">
-        <v>1.071667423074169</v>
+        <v>1.022626519691203</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056221533907146</v>
+        <v>1.005121325799108</v>
       </c>
       <c r="D24">
-        <v>1.055921018085319</v>
+        <v>1.022199814656379</v>
       </c>
       <c r="E24">
-        <v>1.061630117996019</v>
+        <v>1.016947217042625</v>
       </c>
       <c r="F24">
-        <v>1.070161385889108</v>
+        <v>1.018255496640262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047039419740694</v>
+        <v>1.044785068874941</v>
       </c>
       <c r="J24">
-        <v>1.062278115184366</v>
+        <v>1.03242364982174</v>
       </c>
       <c r="K24">
-        <v>1.059223002934276</v>
+        <v>1.035847978723118</v>
       </c>
       <c r="L24">
-        <v>1.064913110005174</v>
+        <v>1.030683116327526</v>
       </c>
       <c r="M24">
-        <v>1.07341641031907</v>
+        <v>1.031969434351705</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058442997324306</v>
+        <v>1.017095553138534</v>
       </c>
       <c r="D25">
-        <v>1.057651804118408</v>
+        <v>1.031403419208337</v>
       </c>
       <c r="E25">
-        <v>1.063675275024911</v>
+        <v>1.02745644625908</v>
       </c>
       <c r="F25">
-        <v>1.072502045977657</v>
+        <v>1.030091598650815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047724998360826</v>
+        <v>1.049173822666611</v>
       </c>
       <c r="J25">
-        <v>1.063902831083201</v>
+        <v>1.041060969806211</v>
       </c>
       <c r="K25">
-        <v>1.060637206640577</v>
+        <v>1.043533040183372</v>
       </c>
       <c r="L25">
-        <v>1.066642702244385</v>
+        <v>1.039642979837289</v>
       </c>
       <c r="M25">
-        <v>1.075443529022865</v>
+        <v>1.042240073870433</v>
       </c>
     </row>
   </sheetData>
